--- a/Excel文件/xiakeqian/侠客.xlsx
+++ b/Excel文件/xiakeqian/侠客.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C288F963-B976-4BEC-B791-C8C1E4D2029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE9D6E-8099-41B7-99AF-8DD0A5B48553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="2667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="2671">
   <si>
     <t>TL_ysky</t>
   </si>
@@ -8122,6 +8122,22 @@
   </si>
   <si>
     <t>长相俊俏，潇洒不羁的浪子。没有人知道他从何而来，亦无人知晓他将往何处而去。隐元少阁主的身分不过是个掩饰，其真实身分隐藏在岳逍遥这个假名当中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M210003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S210003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M210007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S210007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8565,7 +8581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9382,10 +9398,10 @@
         <v>100035</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1364</v>
+        <v>2667</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1365</v>
+        <v>2668</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -9420,10 +9436,10 @@
         <v>100092</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1370</v>
+        <v>2669</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1371</v>
+        <v>2670</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>

--- a/Excel文件/xiakeqian/侠客.xlsx
+++ b/Excel文件/xiakeqian/侠客.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29204"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\xiakeqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE7AEEC-E6D7-44CE-B14E-5AD018ECA776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50890E4F-D009-4D27-8C4D-2132B97F667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="2509">
   <si>
     <t>#编号</t>
   </si>
@@ -7659,16 +7659,10 @@
     <t>小怪</t>
   </si>
   <si>
-    <t>天山派弟子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etc_jp01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>倭寇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>被朝廷列为最危险的通缉罪犯—｢蜘蛛盗贼团｣中的一员，出生地不详，身份及成长背景极其神秘，据说每位成员身上都有一只蜘蛛的刺青，故名蜘蛛盗贼团。</t>
+  </si>
+  <si>
+    <t>一手｢迅雷剑法｣使得出神入化，因此江湖人称迅雷女侠。虽然人品武功都属第一流人物，但也不过是一位为情所困的平凡女子。</t>
   </si>
 </sst>
 </file>
@@ -8130,8 +8124,8 @@
   <dimension ref="A1:AJ769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217:XFD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11496,7 +11490,7 @@
         <v>2221</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J64" s="13">
         <v>1</v>
@@ -11534,7 +11528,7 @@
         <v>2225</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J65" s="13">
         <v>1</v>
@@ -11572,7 +11566,7 @@
         <v>2229</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J66" s="13">
         <v>1</v>
@@ -11610,7 +11604,7 @@
         <v>2230</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J67" s="13">
         <v>0</v>
@@ -11648,7 +11642,7 @@
         <v>2231</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J68" s="13">
         <v>0</v>
@@ -15296,7 +15290,7 @@
         <v>2490</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>2507</v>
+        <v>722</v>
       </c>
       <c r="J164" s="13">
         <v>1</v>
@@ -15372,7 +15366,7 @@
         <v>2195</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>2196</v>
+        <v>2508</v>
       </c>
       <c r="J166" s="13">
         <v>0</v>
@@ -18315,13 +18309,13 @@
         <v>878254</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="D244" s="13">
-        <v>100003</v>
+        <v>100004</v>
       </c>
       <c r="E244" s="13" t="s">
         <v>1044</v>
@@ -18809,7 +18803,7 @@
         <v>310001</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>2508</v>
+        <v>233</v>
       </c>
       <c r="C257" s="16" t="s">
         <v>234</v>
@@ -18827,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>2509</v>
+        <v>237</v>
       </c>
       <c r="I257" s="16" t="s">
         <v>238</v>
@@ -19780,7 +19774,7 @@
         <v>2221</v>
       </c>
       <c r="I282" s="16" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J282" s="16">
         <v>1</v>
@@ -19818,7 +19812,7 @@
         <v>2225</v>
       </c>
       <c r="I283" s="16" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J283" s="16">
         <v>1</v>
@@ -19856,7 +19850,7 @@
         <v>2229</v>
       </c>
       <c r="I284" s="16" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J284" s="16">
         <v>1</v>
@@ -19894,7 +19888,7 @@
         <v>2230</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J285" s="16">
         <v>0</v>
@@ -19932,7 +19926,7 @@
         <v>2231</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J286" s="16">
         <v>0</v>
@@ -23694,7 +23688,7 @@
         <v>2490</v>
       </c>
       <c r="I385" s="17" t="s">
-        <v>2507</v>
+        <v>722</v>
       </c>
       <c r="J385" s="16">
         <v>1</v>
@@ -23770,7 +23764,7 @@
         <v>2195</v>
       </c>
       <c r="I387" s="16" t="s">
-        <v>2196</v>
+        <v>2508</v>
       </c>
       <c r="J387" s="16">
         <v>0</v>
@@ -26941,7 +26935,7 @@
         <v>410001</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>2508</v>
+        <v>233</v>
       </c>
       <c r="C471" s="20" t="s">
         <v>234</v>
@@ -26959,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="H471" s="19" t="s">
-        <v>2509</v>
+        <v>237</v>
       </c>
       <c r="I471" s="20" t="s">
         <v>238</v>
@@ -28032,7 +28026,7 @@
         <v>2221</v>
       </c>
       <c r="I496" s="20" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J496" s="20">
         <v>1</v>
@@ -28070,7 +28064,7 @@
         <v>2225</v>
       </c>
       <c r="I497" s="20" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J497" s="20">
         <v>1</v>
@@ -28108,7 +28102,7 @@
         <v>2229</v>
       </c>
       <c r="I498" s="20" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J498" s="20">
         <v>1</v>
@@ -28170,7 +28164,7 @@
         <v>2230</v>
       </c>
       <c r="I499" s="20" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J499" s="20">
         <v>0</v>
@@ -28232,7 +28226,7 @@
         <v>2231</v>
       </c>
       <c r="I500" s="20" t="s">
-        <v>2222</v>
+        <v>2507</v>
       </c>
       <c r="J500" s="20">
         <v>0</v>
@@ -32690,7 +32684,7 @@
         <v>2490</v>
       </c>
       <c r="I599" s="19" t="s">
-        <v>2507</v>
+        <v>722</v>
       </c>
       <c r="J599" s="20">
         <v>1</v>
@@ -32790,7 +32784,7 @@
         <v>2195</v>
       </c>
       <c r="I601" s="20" t="s">
-        <v>2196</v>
+        <v>2508</v>
       </c>
       <c r="J601" s="20">
         <v>0</v>

--- a/Excel文件/xiakeqian/侠客.xlsx
+++ b/Excel文件/xiakeqian/侠客.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\xiakeqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50890E4F-D009-4D27-8C4D-2132B97F667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7FCE6-9B6C-442E-8D84-909613039DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="新增敌对头目" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_NpcData!$A$2:$L$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DLC_NpcData!$A$2:$L$769</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TXT备份!$A$1:$M$689</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">新增敌对头目!$A$1:$E$92</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="2510">
   <si>
     <t>#编号</t>
   </si>
@@ -7663,6 +7663,10 @@
   </si>
   <si>
     <t>一手｢迅雷剑法｣使得出神入化，因此江湖人称迅雷女侠。虽然人品武功都属第一流人物，但也不过是一位为情所困的平凡女子。</t>
+  </si>
+  <si>
+    <t>Xiuluo_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8124,8 +8128,8 @@
   <dimension ref="A1:AJ769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217:XFD217"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13065,45 +13069,45 @@
         <v>879007</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>1248</v>
+        <v>341</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1249</v>
+        <v>342</v>
       </c>
       <c r="D106" s="13">
-        <v>200025</v>
+        <v>610168</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>1250</v>
+        <v>343</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>1251</v>
+        <v>344</v>
       </c>
       <c r="G106" s="13">
         <v>0</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>1185</v>
+        <v>345</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>1252</v>
+        <v>346</v>
       </c>
       <c r="J106" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="13">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L106" s="13" t="s">
-        <v>1253</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="13">
         <v>100131</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>1527</v>
+      <c r="B107" s="14" t="s">
+        <v>2509</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>1226</v>
@@ -21197,45 +21201,45 @@
         <v>310064</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>1248</v>
+        <v>341</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>1249</v>
+        <v>342</v>
       </c>
       <c r="D320" s="16">
-        <v>200025</v>
+        <v>610168</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1250</v>
+        <v>343</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>1251</v>
+        <v>344</v>
       </c>
       <c r="G320" s="16">
         <v>0</v>
       </c>
       <c r="H320" s="16" t="s">
-        <v>1185</v>
+        <v>345</v>
       </c>
       <c r="I320" s="16" t="s">
-        <v>1252</v>
+        <v>346</v>
       </c>
       <c r="J320" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K320" s="16">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L320" s="16" t="s">
-        <v>1253</v>
+        <v>334</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A321" s="15">
         <v>310065</v>
       </c>
-      <c r="B321" s="16" t="s">
-        <v>1527</v>
+      <c r="B321" s="17" t="s">
+        <v>2509</v>
       </c>
       <c r="C321" s="16" t="s">
         <v>1226</v>
@@ -29929,37 +29933,37 @@
         <v>410064</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>1248</v>
+        <v>341</v>
       </c>
       <c r="C534" s="20" t="s">
-        <v>1249</v>
+        <v>342</v>
       </c>
       <c r="D534" s="20">
-        <v>200025</v>
+        <v>610168</v>
       </c>
       <c r="E534" s="20" t="s">
-        <v>1250</v>
+        <v>343</v>
       </c>
       <c r="F534" s="20" t="s">
-        <v>1251</v>
+        <v>344</v>
       </c>
       <c r="G534" s="20">
         <v>0</v>
       </c>
       <c r="H534" s="20" t="s">
-        <v>1185</v>
+        <v>345</v>
       </c>
       <c r="I534" s="20" t="s">
-        <v>1252</v>
+        <v>346</v>
       </c>
       <c r="J534" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K534" s="20">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L534" s="20" t="s">
-        <v>1253</v>
+        <v>334</v>
       </c>
       <c r="M534"/>
       <c r="N534"/>
@@ -29990,8 +29994,8 @@
       <c r="A535" s="18">
         <v>410065</v>
       </c>
-      <c r="B535" s="20" t="s">
-        <v>1527</v>
+      <c r="B535" s="19" t="s">
+        <v>2509</v>
       </c>
       <c r="C535" s="20" t="s">
         <v>1226</v>
